--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Gfra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H2">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.922308333333334</v>
+        <v>0.048574</v>
       </c>
       <c r="N2">
-        <v>26.766925</v>
+        <v>0.145722</v>
       </c>
       <c r="O2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="P2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="Q2">
-        <v>22.64779860098333</v>
+        <v>0.02736562012</v>
       </c>
       <c r="R2">
-        <v>203.83018740885</v>
+        <v>0.24629058108</v>
       </c>
       <c r="S2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="T2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -593,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H3">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +614,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.613253666666666</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N3">
-        <v>16.839761</v>
+        <v>26.766925</v>
       </c>
       <c r="O3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="P3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="Q3">
-        <v>14.24831263272466</v>
+        <v>5.026650068833334</v>
       </c>
       <c r="R3">
-        <v>128.234813694522</v>
+        <v>45.2398506195</v>
       </c>
       <c r="S3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="T3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.56338</v>
+      </c>
+      <c r="H4">
+        <v>1.69014</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>4.534313</v>
+      </c>
+      <c r="N4">
+        <v>13.602939</v>
+      </c>
+      <c r="O4">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="P4">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="Q4">
+        <v>2.55454125794</v>
+      </c>
+      <c r="R4">
+        <v>22.99087132146</v>
+      </c>
+      <c r="S4">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="T4">
+        <v>0.3357458287780905</v>
       </c>
     </row>
   </sheetData>
